--- a/RUDN/Correlations/deep.Corr_in_MHL.Micronesia.xlsx
+++ b/RUDN/Correlations/deep.Corr_in_MHL.Micronesia.xlsx
@@ -14,15 +14,267 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+  <si>
+    <t>IC.REG.COST.PC.MA.ZS:MHL</t>
+  </si>
+  <si>
+    <t>IC.REG.DURS.FE:MHL</t>
+  </si>
   <si>
     <t>IC.REG.DURS.MA:MHL</t>
   </si>
   <si>
+    <t>IT.NET.USER.P2:MHL</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.CD:MHL</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.KD.ZG:MHL</t>
+  </si>
+  <si>
+    <t>NY.GDP.PCAP.CD:MHL</t>
+  </si>
+  <si>
+    <t>NY.GNP.ATLS.CD:MHL</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.CD:MHL</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.PP.CD:MHL</t>
+  </si>
+  <si>
+    <t>SG.GEN.PARL.ZS:MHL</t>
+  </si>
+  <si>
+    <t>SH.ANM.ALLW.ZS:MHL</t>
+  </si>
+  <si>
+    <t>SH.ANM.NPRG.ZS:MHL</t>
+  </si>
+  <si>
+    <t>SH.DTH.IMRT:MHL</t>
+  </si>
+  <si>
+    <t>SH.DTH.MORT:MHL</t>
+  </si>
+  <si>
+    <t>SH.DTH.NMRT:MHL</t>
+  </si>
+  <si>
+    <t>SH.DYN.MORT:MHL</t>
+  </si>
+  <si>
+    <t>SH.IMM.HEPB:MHL</t>
+  </si>
+  <si>
+    <t>SH.IMM.HIB3:MHL</t>
+  </si>
+  <si>
+    <t>SH.IMM.IBCG:MHL</t>
+  </si>
+  <si>
+    <t>SH.IMM.IDPT:MHL</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:MHL</t>
+  </si>
+  <si>
+    <t>SH.IMM.POL3:MHL</t>
+  </si>
+  <si>
+    <t>SP.DYN.IMRT.IN:MHL</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:MHL</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL.ZS:MHL</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL:MHL</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL.IN.ZS:MHL</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL:MHL</t>
+  </si>
+  <si>
+    <t>IC.REG.COST.PC.FE.ZS:MHL:cor-value</t>
+  </si>
+  <si>
+    <t>IC.REG.COST.PC.FE.ZS:MHL:p-value</t>
+  </si>
+  <si>
+    <t>IC.REG.COST.PC.MA.ZS:MHL:cor-value</t>
+  </si>
+  <si>
+    <t>IC.REG.COST.PC.MA.ZS:MHL:p-value</t>
+  </si>
+  <si>
     <t>IC.REG.DURS.FE:MHL:cor-value</t>
   </si>
   <si>
     <t>IC.REG.DURS.FE:MHL:p-value</t>
+  </si>
+  <si>
+    <t>IC.REG.DURS.MA:MHL:cor-value</t>
+  </si>
+  <si>
+    <t>IC.REG.DURS.MA:MHL:p-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.CD:MHL:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.CD:MHL:p-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.KD.ZG:MHL:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.KD.ZG:MHL:p-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.PCAP.CD:MHL:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.PCAP.CD:MHL:p-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.ATLS.CD:MHL:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.ATLS.CD:MHL:p-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.CD:MHL:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.CD:MHL:p-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.PP.CD:MHL:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.PP.CD:MHL:p-value</t>
+  </si>
+  <si>
+    <t>SG.GEN.PARL.ZS:MHL:cor-value</t>
+  </si>
+  <si>
+    <t>SG.GEN.PARL.ZS:MHL:p-value</t>
+  </si>
+  <si>
+    <t>SH.ANM.ALLW.ZS:MHL:cor-value</t>
+  </si>
+  <si>
+    <t>SH.ANM.ALLW.ZS:MHL:p-value</t>
+  </si>
+  <si>
+    <t>SH.ANM.NPRG.ZS:MHL:cor-value</t>
+  </si>
+  <si>
+    <t>SH.ANM.NPRG.ZS:MHL:p-value</t>
+  </si>
+  <si>
+    <t>SH.DTH.IMRT:MHL:cor-value</t>
+  </si>
+  <si>
+    <t>SH.DTH.IMRT:MHL:p-value</t>
+  </si>
+  <si>
+    <t>SH.DTH.MORT:MHL:cor-value</t>
+  </si>
+  <si>
+    <t>SH.DTH.MORT:MHL:p-value</t>
+  </si>
+  <si>
+    <t>SH.DTH.NMRT:MHL:cor-value</t>
+  </si>
+  <si>
+    <t>SH.DTH.NMRT:MHL:p-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.MORT:MHL:cor-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.MORT:MHL:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.HEPB:MHL:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.HEPB:MHL:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.HIB3:MHL:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.HIB3:MHL:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.IBCG:MHL:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.IBCG:MHL:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.IDPT:MHL:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.IDPT:MHL:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:MHL:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:MHL:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.POL3:MHL:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.POL3:MHL:p-value</t>
+  </si>
+  <si>
+    <t>SP.DYN.IMRT.IN:MHL:cor-value</t>
+  </si>
+  <si>
+    <t>SP.DYN.IMRT.IN:MHL:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:MHL:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:MHL:p-value</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL.ZS:MHL:cor-value</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL.ZS:MHL:p-value</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL:MHL:cor-value</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL:MHL:p-value</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL.IN.ZS:MHL:cor-value</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL.IN.ZS:MHL:p-value</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL:MHL:cor-value</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL:MHL:p-value</t>
   </si>
 </sst>
 </file>
@@ -380,31 +632,2765 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:AD59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>0.366801892053159</v>
+      </c>
+      <c r="D2">
+        <v>0.366801892053159</v>
+      </c>
+      <c r="E2">
+        <v>-0.818517144731177</v>
+      </c>
+      <c r="F2">
+        <v>-0.9184304769602526</v>
+      </c>
+      <c r="H2">
+        <v>-0.9134976293591388</v>
+      </c>
+      <c r="I2">
+        <v>-0.9025977632768311</v>
+      </c>
+      <c r="J2">
+        <v>-0.8984180025392122</v>
+      </c>
+      <c r="K2">
+        <v>-0.8817117625449822</v>
+      </c>
+      <c r="L2">
+        <v>-0.5057229741424213</v>
+      </c>
+      <c r="M2">
+        <v>-0.330380546519261</v>
+      </c>
+      <c r="N2">
+        <v>-0.3900828449410896</v>
+      </c>
+      <c r="O2">
+        <v>0.9285375170435179</v>
+      </c>
+      <c r="P2">
+        <v>0.9232233079716735</v>
+      </c>
+      <c r="Q2">
+        <v>0.9365459722713211</v>
+      </c>
+      <c r="R2">
+        <v>0.8430510521437481</v>
+      </c>
+      <c r="S2">
+        <v>0.2130549617524524</v>
+      </c>
+      <c r="U2">
+        <v>-0.1727391363617364</v>
+      </c>
+      <c r="V2">
+        <v>-0.1490717755641385</v>
+      </c>
+      <c r="W2">
+        <v>0.4654835333702325</v>
+      </c>
+      <c r="X2">
+        <v>0.2654022770617964</v>
+      </c>
+      <c r="Y2">
+        <v>0.8466700952878469</v>
+      </c>
+      <c r="Z2">
+        <v>-0.9115135119208014</v>
+      </c>
+      <c r="AA2">
+        <v>0.9298142873115173</v>
+      </c>
+      <c r="AB2">
+        <v>0.9250671010773996</v>
+      </c>
+      <c r="AC2">
+        <v>-0.9298142873115173</v>
+      </c>
+      <c r="AD2">
+        <v>-0.9316489766814553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.197042442082441</v>
+      </c>
+      <c r="D3">
+        <v>0.197042442082441</v>
+      </c>
+      <c r="E3">
+        <v>0.0003446160411677252</v>
+      </c>
+      <c r="F3">
+        <v>3.560486131910847e-06</v>
+      </c>
+      <c r="H3">
+        <v>5.009140152846991e-06</v>
+      </c>
+      <c r="I3">
+        <v>9.965217797442735e-06</v>
+      </c>
+      <c r="J3">
+        <v>1.270359340856121e-05</v>
+      </c>
+      <c r="K3">
+        <v>3.050920074324681e-05</v>
+      </c>
+      <c r="L3">
+        <v>0.06504831072233756</v>
+      </c>
+      <c r="M3">
+        <v>0.2486303598021893</v>
+      </c>
+      <c r="N3">
+        <v>0.1679431319349344</v>
+      </c>
+      <c r="O3">
+        <v>1.646290750574785e-06</v>
+      </c>
+      <c r="P3">
+        <v>2.502194335514414e-06</v>
+      </c>
+      <c r="Q3">
+        <v>8.211984689187267e-07</v>
+      </c>
+      <c r="R3">
+        <v>0.0001525152256699552</v>
+      </c>
+      <c r="S3">
+        <v>0.4645857237312623</v>
+      </c>
+      <c r="U3">
+        <v>0.5548295121859546</v>
+      </c>
+      <c r="V3">
+        <v>0.61101186499372</v>
+      </c>
+      <c r="W3">
+        <v>0.09347411344362851</v>
+      </c>
+      <c r="X3">
+        <v>0.3591117750242201</v>
+      </c>
+      <c r="Y3">
+        <v>0.0001336929299781337</v>
+      </c>
+      <c r="Z3">
+        <v>5.714062684038271e-06</v>
+      </c>
+      <c r="AA3">
+        <v>1.481672722218268e-06</v>
+      </c>
+      <c r="AB3">
+        <v>2.171441994975037e-06</v>
+      </c>
+      <c r="AC3">
+        <v>1.481672722218268e-06</v>
+      </c>
+      <c r="AD3">
+        <v>1.269068664017979e-06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>0.366801892053159</v>
+      </c>
+      <c r="D4">
+        <v>0.366801892053159</v>
+      </c>
+      <c r="E4">
+        <v>-0.818517144731177</v>
+      </c>
+      <c r="F4">
+        <v>-0.9184304769602526</v>
+      </c>
+      <c r="H4">
+        <v>-0.9134976293591388</v>
+      </c>
+      <c r="I4">
+        <v>-0.9025977632768311</v>
+      </c>
+      <c r="J4">
+        <v>-0.8984180025392122</v>
+      </c>
+      <c r="K4">
+        <v>-0.8817117625449822</v>
+      </c>
+      <c r="L4">
+        <v>-0.5057229741424213</v>
+      </c>
+      <c r="M4">
+        <v>-0.330380546519261</v>
+      </c>
+      <c r="N4">
+        <v>-0.3900828449410896</v>
+      </c>
+      <c r="O4">
+        <v>0.9285375170435179</v>
+      </c>
+      <c r="P4">
+        <v>0.9232233079716735</v>
+      </c>
+      <c r="Q4">
+        <v>0.9365459722713211</v>
+      </c>
+      <c r="R4">
+        <v>0.8430510521437481</v>
+      </c>
+      <c r="S4">
+        <v>0.2130549617524524</v>
+      </c>
+      <c r="U4">
+        <v>-0.1727391363617364</v>
+      </c>
+      <c r="V4">
+        <v>-0.1490717755641385</v>
+      </c>
+      <c r="W4">
+        <v>0.4654835333702325</v>
+      </c>
+      <c r="X4">
+        <v>0.2654022770617964</v>
+      </c>
+      <c r="Y4">
+        <v>0.8466700952878469</v>
+      </c>
+      <c r="Z4">
+        <v>-0.9115135119208014</v>
+      </c>
+      <c r="AA4">
+        <v>0.9298142873115173</v>
+      </c>
+      <c r="AB4">
+        <v>0.9250671010773996</v>
+      </c>
+      <c r="AC4">
+        <v>-0.9298142873115173</v>
+      </c>
+      <c r="AD4">
+        <v>-0.9316489766814553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>0.197042442082441</v>
+      </c>
+      <c r="D5">
+        <v>0.197042442082441</v>
+      </c>
+      <c r="E5">
+        <v>0.0003446160411677252</v>
+      </c>
+      <c r="F5">
+        <v>3.560486131910847e-06</v>
+      </c>
+      <c r="H5">
+        <v>5.009140152846991e-06</v>
+      </c>
+      <c r="I5">
+        <v>9.965217797442735e-06</v>
+      </c>
+      <c r="J5">
+        <v>1.270359340856121e-05</v>
+      </c>
+      <c r="K5">
+        <v>3.050920074324681e-05</v>
+      </c>
+      <c r="L5">
+        <v>0.06504831072233756</v>
+      </c>
+      <c r="M5">
+        <v>0.2486303598021893</v>
+      </c>
+      <c r="N5">
+        <v>0.1679431319349344</v>
+      </c>
+      <c r="O5">
+        <v>1.646290750574785e-06</v>
+      </c>
+      <c r="P5">
+        <v>2.502194335514414e-06</v>
+      </c>
+      <c r="Q5">
+        <v>8.211984689187267e-07</v>
+      </c>
+      <c r="R5">
+        <v>0.0001525152256699552</v>
+      </c>
+      <c r="S5">
+        <v>0.4645857237312623</v>
+      </c>
+      <c r="U5">
+        <v>0.5548295121859546</v>
+      </c>
+      <c r="V5">
+        <v>0.61101186499372</v>
+      </c>
+      <c r="W5">
+        <v>0.09347411344362851</v>
+      </c>
+      <c r="X5">
+        <v>0.3591117750242201</v>
+      </c>
+      <c r="Y5">
+        <v>0.0001336929299781337</v>
+      </c>
+      <c r="Z5">
+        <v>5.714062684038271e-06</v>
+      </c>
+      <c r="AA5">
+        <v>1.481672722218268e-06</v>
+      </c>
+      <c r="AB5">
+        <v>2.171441994975037e-06</v>
+      </c>
+      <c r="AC5">
+        <v>1.481672722218268e-06</v>
+      </c>
+      <c r="AD5">
+        <v>1.269068664017979e-06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>-0.2637413294968875</v>
+      </c>
+      <c r="O6">
+        <v>0.3886217827998786</v>
+      </c>
+      <c r="P6">
+        <v>0.3896956946226947</v>
+      </c>
+      <c r="Q6">
+        <v>0.3750080710250212</v>
+      </c>
+      <c r="R6">
+        <v>0.3063378620360651</v>
+      </c>
+      <c r="S6">
+        <v>-0.3550757655058015</v>
+      </c>
+      <c r="U6">
+        <v>-0.1347233793255862</v>
+      </c>
+      <c r="X6">
+        <v>-0.1458295357386206</v>
+      </c>
+      <c r="Y6">
+        <v>0.3083574954034885</v>
+      </c>
+      <c r="AA6">
+        <v>0.459873923731107</v>
+      </c>
+      <c r="AB6">
+        <v>0.4940027578455071</v>
+      </c>
+      <c r="AC6">
+        <v>-0.459873923731107</v>
+      </c>
+      <c r="AD6">
+        <v>-0.4039274789128297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0.3622397828601366</v>
+      </c>
+      <c r="O7">
+        <v>0.1696816438635033</v>
+      </c>
+      <c r="P7">
+        <v>0.1684026654912079</v>
+      </c>
+      <c r="Q7">
+        <v>0.1864436552197454</v>
+      </c>
+      <c r="R7">
+        <v>0.2867730654618734</v>
+      </c>
+      <c r="S7">
+        <v>0.2128388630683873</v>
+      </c>
+      <c r="U7">
+        <v>0.6460948275234661</v>
+      </c>
+      <c r="X7">
+        <v>0.6188751591523129</v>
+      </c>
+      <c r="Y7">
+        <v>0.2834441892763326</v>
+      </c>
+      <c r="AA7">
+        <v>0.09802765546623345</v>
+      </c>
+      <c r="AB7">
+        <v>0.07258511645267589</v>
+      </c>
+      <c r="AC7">
+        <v>0.09802765546623345</v>
+      </c>
+      <c r="AD7">
+        <v>0.1520447389931636</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8">
+        <v>-0.2637413294968875</v>
+      </c>
+      <c r="O8">
+        <v>0.3886217827998786</v>
+      </c>
+      <c r="P8">
+        <v>0.3896956946226947</v>
+      </c>
+      <c r="Q8">
+        <v>0.3750080710250212</v>
+      </c>
+      <c r="R8">
+        <v>0.3063378620360651</v>
+      </c>
+      <c r="S8">
+        <v>-0.3550757655058015</v>
+      </c>
+      <c r="U8">
+        <v>-0.1347233793255862</v>
+      </c>
+      <c r="X8">
+        <v>-0.1458295357386206</v>
+      </c>
+      <c r="Y8">
+        <v>0.3083574954034885</v>
+      </c>
+      <c r="AA8">
+        <v>0.459873923731107</v>
+      </c>
+      <c r="AB8">
+        <v>0.4940027578455071</v>
+      </c>
+      <c r="AC8">
+        <v>-0.459873923731107</v>
+      </c>
+      <c r="AD8">
+        <v>-0.4039274789128297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9">
+        <v>0.3622397828601366</v>
+      </c>
+      <c r="O9">
+        <v>0.1696816438635033</v>
+      </c>
+      <c r="P9">
+        <v>0.1684026654912079</v>
+      </c>
+      <c r="Q9">
+        <v>0.1864436552197454</v>
+      </c>
+      <c r="R9">
+        <v>0.2867730654618734</v>
+      </c>
+      <c r="S9">
+        <v>0.2128388630683873</v>
+      </c>
+      <c r="U9">
+        <v>0.6460948275234661</v>
+      </c>
+      <c r="X9">
+        <v>0.6188751591523129</v>
+      </c>
+      <c r="Y9">
+        <v>0.2834441892763326</v>
+      </c>
+      <c r="AA9">
+        <v>0.09802765546623345</v>
+      </c>
+      <c r="AB9">
+        <v>0.07258511645267589</v>
+      </c>
+      <c r="AC9">
+        <v>0.09802765546623345</v>
+      </c>
+      <c r="AD9">
+        <v>0.1520447389931636</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10">
+        <v>-0.4548004585461125</v>
+      </c>
+      <c r="D10">
+        <v>-0.4548004585461125</v>
+      </c>
+      <c r="E10">
+        <v>0.7933257931981553</v>
+      </c>
+      <c r="G10">
+        <v>0.2272041760739301</v>
+      </c>
+      <c r="H10">
+        <v>0.9996739574236075</v>
+      </c>
+      <c r="I10">
+        <v>0.9197011567510831</v>
+      </c>
+      <c r="J10">
+        <v>0.9172499696010371</v>
+      </c>
+      <c r="K10">
+        <v>0.8665756944112195</v>
+      </c>
+      <c r="L10">
+        <v>0.3949579724997488</v>
+      </c>
+      <c r="M10">
+        <v>0.1770704347949085</v>
+      </c>
+      <c r="N10">
+        <v>0.2481337303162734</v>
+      </c>
+      <c r="O10">
+        <v>-0.929087738008235</v>
+      </c>
+      <c r="P10">
+        <v>-0.929060878320162</v>
+      </c>
+      <c r="Q10">
+        <v>-0.931669998942221</v>
+      </c>
+      <c r="R10">
+        <v>-0.7843553093553081</v>
+      </c>
+      <c r="S10">
+        <v>-0.1495151072992349</v>
+      </c>
+      <c r="U10">
+        <v>0.2767200085558495</v>
+      </c>
+      <c r="V10">
+        <v>0.213496269246342</v>
+      </c>
+      <c r="W10">
+        <v>-0.3249020173774029</v>
+      </c>
+      <c r="X10">
+        <v>-0.2120284151016394</v>
+      </c>
+      <c r="Y10">
+        <v>-0.7918994503259943</v>
+      </c>
+      <c r="Z10">
+        <v>0.9105885152124401</v>
+      </c>
+      <c r="AA10">
+        <v>-0.9573609391535767</v>
+      </c>
+      <c r="AB10">
+        <v>-0.9572744195796139</v>
+      </c>
+      <c r="AC10">
+        <v>0.9573609391535767</v>
+      </c>
+      <c r="AD10">
+        <v>0.9502774259879005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11">
+        <v>0.1022763456032799</v>
+      </c>
+      <c r="D11">
+        <v>0.1022763456032799</v>
+      </c>
+      <c r="E11">
+        <v>0.0007090626078962969</v>
+      </c>
+      <c r="G11">
+        <v>0.4347081680304221</v>
+      </c>
+      <c r="H11">
+        <v>1.733143210379805e-20</v>
+      </c>
+      <c r="I11">
+        <v>3.249516030156771e-06</v>
+      </c>
+      <c r="J11">
+        <v>3.870932928177979e-06</v>
+      </c>
+      <c r="K11">
+        <v>6.072644669405092e-05</v>
+      </c>
+      <c r="L11">
+        <v>0.1622263992968095</v>
+      </c>
+      <c r="M11">
+        <v>0.5447916214361346</v>
+      </c>
+      <c r="N11">
+        <v>0.3923487490025752</v>
+      </c>
+      <c r="O11">
+        <v>1.573593986711326e-06</v>
+      </c>
+      <c r="P11">
+        <v>1.577080224212997e-06</v>
+      </c>
+      <c r="Q11">
+        <v>1.266787183712941e-06</v>
+      </c>
+      <c r="R11">
+        <v>0.0008959969735742066</v>
+      </c>
+      <c r="S11">
+        <v>0.6099396654770195</v>
+      </c>
+      <c r="U11">
+        <v>0.3381932418227758</v>
+      </c>
+      <c r="V11">
+        <v>0.463639170698289</v>
+      </c>
+      <c r="W11">
+        <v>0.2570359063382124</v>
+      </c>
+      <c r="X11">
+        <v>0.4667911527630658</v>
+      </c>
+      <c r="Y11">
+        <v>0.0007364829872556981</v>
+      </c>
+      <c r="Z11">
+        <v>6.069476694735665e-06</v>
+      </c>
+      <c r="AA11">
+        <v>7.912631852208217e-08</v>
+      </c>
+      <c r="AB11">
+        <v>8.007945647332642e-08</v>
+      </c>
+      <c r="AC11">
+        <v>7.912631852208217e-08</v>
+      </c>
+      <c r="AD11">
+        <v>1.959219783409985e-07</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12">
+        <v>-0.1730545389522126</v>
+      </c>
+      <c r="D12">
+        <v>-0.1730545389522126</v>
+      </c>
+      <c r="E12">
+        <v>0.1090508229792893</v>
+      </c>
+      <c r="H12">
+        <v>0.2349334999527126</v>
+      </c>
+      <c r="M12">
+        <v>-0.1008941462286778</v>
+      </c>
+      <c r="O12">
+        <v>-0.102398960475762</v>
+      </c>
+      <c r="P12">
+        <v>-0.09927498189839237</v>
+      </c>
+      <c r="U12">
+        <v>0.2343053585070285</v>
+      </c>
+      <c r="W12">
+        <v>0.4288809795948915</v>
+      </c>
+      <c r="AA12">
+        <v>-0.1312391867355505</v>
+      </c>
+      <c r="AB12">
+        <v>-0.1405136644080937</v>
+      </c>
+      <c r="AC12">
+        <v>0.1312391867355505</v>
+      </c>
+      <c r="AD12">
+        <v>0.1150181148010077</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>0.5540959178076529</v>
+      </c>
+      <c r="D13">
+        <v>0.5540959178076529</v>
+      </c>
+      <c r="E13">
+        <v>0.710564207218747</v>
+      </c>
+      <c r="H13">
+        <v>0.4188052248612304</v>
+      </c>
+      <c r="M13">
+        <v>0.731454026588795</v>
+      </c>
+      <c r="O13">
+        <v>0.7275865884455994</v>
+      </c>
+      <c r="P13">
+        <v>0.7356219777086109</v>
+      </c>
+      <c r="U13">
+        <v>0.4200863848937154</v>
+      </c>
+      <c r="W13">
+        <v>0.1259703648145699</v>
+      </c>
+      <c r="AA13">
+        <v>0.6547216239466638</v>
+      </c>
+      <c r="AB13">
+        <v>0.6318496337858646</v>
+      </c>
+      <c r="AC13">
+        <v>0.6547216239466638</v>
+      </c>
+      <c r="AD13">
+        <v>0.6953994148748124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <v>-0.4640822648006305</v>
+      </c>
+      <c r="D14">
+        <v>-0.4640822648006305</v>
+      </c>
+      <c r="E14">
+        <v>0.7794114792327291</v>
+      </c>
+      <c r="I14">
+        <v>0.913517290161851</v>
+      </c>
+      <c r="J14">
+        <v>0.9115207900940128</v>
+      </c>
+      <c r="K14">
+        <v>0.857298123276732</v>
+      </c>
+      <c r="L14">
+        <v>0.3766216461485589</v>
+      </c>
+      <c r="M14">
+        <v>0.1544110571782045</v>
+      </c>
+      <c r="N14">
+        <v>0.2258472180419569</v>
+      </c>
+      <c r="O14">
+        <v>-0.920555288286583</v>
+      </c>
+      <c r="P14">
+        <v>-0.9203376736381063</v>
+      </c>
+      <c r="Q14">
+        <v>-0.9229382337253903</v>
+      </c>
+      <c r="R14">
+        <v>-0.7703022213675471</v>
+      </c>
+      <c r="S14">
+        <v>-0.1329981306474005</v>
+      </c>
+      <c r="U14">
+        <v>0.2803469593901337</v>
+      </c>
+      <c r="V14">
+        <v>0.2276556467465566</v>
+      </c>
+      <c r="W14">
+        <v>-0.3115919660860924</v>
+      </c>
+      <c r="X14">
+        <v>-0.1964769853957574</v>
+      </c>
+      <c r="Y14">
+        <v>-0.7780819232864397</v>
+      </c>
+      <c r="Z14">
+        <v>0.8998110722335595</v>
+      </c>
+      <c r="AA14">
+        <v>-0.9519130854608134</v>
+      </c>
+      <c r="AB14">
+        <v>-0.9528412407814584</v>
+      </c>
+      <c r="AC14">
+        <v>0.9519130854608134</v>
+      </c>
+      <c r="AD14">
+        <v>0.9431030461532723</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15">
+        <v>0.09459750565304979</v>
+      </c>
+      <c r="D15">
+        <v>0.09459750565304979</v>
+      </c>
+      <c r="E15">
+        <v>0.001014718279134284</v>
+      </c>
+      <c r="I15">
+        <v>5.002531109643352e-06</v>
+      </c>
+      <c r="J15">
+        <v>5.711335577262988e-06</v>
+      </c>
+      <c r="K15">
+        <v>8.900640385373482e-05</v>
+      </c>
+      <c r="L15">
+        <v>0.1844035632782079</v>
+      </c>
+      <c r="M15">
+        <v>0.5981475090288441</v>
+      </c>
+      <c r="N15">
+        <v>0.4375309165788264</v>
+      </c>
+      <c r="O15">
+        <v>3.053327740186043e-06</v>
+      </c>
+      <c r="P15">
+        <v>3.102361122078552e-06</v>
+      </c>
+      <c r="Q15">
+        <v>2.55684783547736e-06</v>
+      </c>
+      <c r="R15">
+        <v>0.001266196578052361</v>
+      </c>
+      <c r="S15">
+        <v>0.6503614253581526</v>
+      </c>
+      <c r="U15">
+        <v>0.3316366895978963</v>
+      </c>
+      <c r="V15">
+        <v>0.4337710468539059</v>
+      </c>
+      <c r="W15">
+        <v>0.278160518581556</v>
+      </c>
+      <c r="X15">
+        <v>0.5008082961231148</v>
+      </c>
+      <c r="Y15">
+        <v>0.001048698672624858</v>
+      </c>
+      <c r="Z15">
+        <v>1.172989404238244e-05</v>
+      </c>
+      <c r="AA15">
+        <v>1.608699562076458e-07</v>
+      </c>
+      <c r="AB15">
+        <v>1.434061866954874e-07</v>
+      </c>
+      <c r="AC15">
+        <v>1.608699562076458e-07</v>
+      </c>
+      <c r="AD15">
+        <v>4.329886704521533e-07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16">
+        <v>-0.5130959685840902</v>
+      </c>
+      <c r="D16">
+        <v>-0.5130959685840902</v>
+      </c>
+      <c r="E16">
+        <v>0.878627263794553</v>
+      </c>
+      <c r="L16">
+        <v>0.6303408242779631</v>
+      </c>
+      <c r="M16">
+        <v>0.4236158132120558</v>
+      </c>
+      <c r="N16">
+        <v>0.4838101992127967</v>
+      </c>
+      <c r="O16">
+        <v>-0.971995567385417</v>
+      </c>
+      <c r="P16">
+        <v>-0.9710934599247775</v>
+      </c>
+      <c r="Q16">
+        <v>-0.9641329955053911</v>
+      </c>
+      <c r="R16">
+        <v>-0.9205345739702007</v>
+      </c>
+      <c r="S16">
+        <v>-0.134723016835514</v>
+      </c>
+      <c r="U16">
+        <v>0.1948094491550082</v>
+      </c>
+      <c r="V16">
+        <v>0.1770934439188479</v>
+      </c>
+      <c r="W16">
+        <v>-0.3979919987962109</v>
+      </c>
+      <c r="X16">
+        <v>-0.2210969614362631</v>
+      </c>
+      <c r="Y16">
+        <v>-0.9245543696942498</v>
+      </c>
+      <c r="Z16">
+        <v>0.9346782531750761</v>
+      </c>
+      <c r="AA16">
+        <v>-0.971016271101849</v>
+      </c>
+      <c r="AB16">
+        <v>-0.9701315802353973</v>
+      </c>
+      <c r="AC16">
+        <v>0.971016271101849</v>
+      </c>
+      <c r="AD16">
+        <v>0.9680545633090603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
+      <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17">
+        <v>0.06060412414322928</v>
+      </c>
+      <c r="D17">
+        <v>0.06060412414322928</v>
+      </c>
+      <c r="E17">
+        <v>3.535875738853011e-05</v>
+      </c>
+      <c r="L17">
+        <v>0.01567022169355837</v>
+      </c>
+      <c r="M17">
+        <v>0.1312004111300615</v>
+      </c>
+      <c r="N17">
+        <v>0.0796264162689711</v>
+      </c>
+      <c r="O17">
+        <v>6.556115479893896e-09</v>
+      </c>
+      <c r="P17">
+        <v>7.914319817065687e-09</v>
+      </c>
+      <c r="Q17">
+        <v>2.844766366642256e-08</v>
+      </c>
+      <c r="R17">
+        <v>3.05796748717359e-06</v>
+      </c>
+      <c r="S17">
+        <v>0.6460957229178281</v>
+      </c>
+      <c r="U17">
+        <v>0.5045221076357005</v>
+      </c>
+      <c r="V17">
+        <v>0.5447385073390709</v>
+      </c>
+      <c r="W17">
+        <v>0.1587337437096091</v>
+      </c>
+      <c r="X17">
+        <v>0.4474841349287139</v>
+      </c>
+      <c r="Y17">
+        <v>2.259570768980373e-06</v>
+      </c>
+      <c r="Z17">
+        <v>9.733221468047522e-07</v>
+      </c>
+      <c r="AA17">
+        <v>8.040625122281561e-09</v>
+      </c>
+      <c r="AB17">
+        <v>9.61180174023538e-09</v>
+      </c>
+      <c r="AC17">
+        <v>8.040625122281561e-09</v>
+      </c>
+      <c r="AD17">
+        <v>1.432279078202711e-08</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18">
+        <v>-0.528909097541672</v>
+      </c>
+      <c r="D18">
+        <v>-0.528909097541672</v>
+      </c>
+      <c r="E18">
+        <v>0.8688744793458738</v>
+      </c>
+      <c r="I18">
+        <v>0.999641016301732</v>
+      </c>
+      <c r="K18">
+        <v>0.9764280539223688</v>
+      </c>
+      <c r="L18">
+        <v>0.6211247775491295</v>
+      </c>
+      <c r="M18">
+        <v>0.4104652156494241</v>
+      </c>
+      <c r="N18">
+        <v>0.4705790853454574</v>
+      </c>
+      <c r="O18">
+        <v>-0.9667740353624531</v>
+      </c>
+      <c r="P18">
+        <v>-0.9655946495673468</v>
+      </c>
+      <c r="Q18">
+        <v>-0.9579366797052254</v>
+      </c>
+      <c r="R18">
+        <v>-0.9135921589913116</v>
+      </c>
+      <c r="S18">
+        <v>-0.1132147587877396</v>
+      </c>
+      <c r="U18">
+        <v>0.192915835540874</v>
+      </c>
+      <c r="V18">
+        <v>0.1938710685003543</v>
+      </c>
+      <c r="W18">
+        <v>-0.3859817859626211</v>
+      </c>
+      <c r="X18">
+        <v>-0.2025485247558258</v>
+      </c>
+      <c r="Y18">
+        <v>-0.9177171975701274</v>
+      </c>
+      <c r="Z18">
+        <v>0.9253638208335857</v>
+      </c>
+      <c r="AA18">
+        <v>-0.9680032485480742</v>
+      </c>
+      <c r="AB18">
+        <v>-0.9683602358138454</v>
+      </c>
+      <c r="AC18">
+        <v>0.9680032485480742</v>
+      </c>
+      <c r="AD18">
+        <v>0.9630706118865425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
+      <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19">
+        <v>0.05181491433683255</v>
+      </c>
+      <c r="D19">
+        <v>0.05181491433683255</v>
+      </c>
+      <c r="E19">
+        <v>5.499803410944102e-05</v>
+      </c>
+      <c r="I19">
+        <v>3.087494954387257e-20</v>
+      </c>
+      <c r="K19">
+        <v>2.354104458461762e-09</v>
+      </c>
+      <c r="L19">
+        <v>0.01775134290110161</v>
+      </c>
+      <c r="M19">
+        <v>0.1448955954080514</v>
+      </c>
+      <c r="N19">
+        <v>0.08946730166900047</v>
+      </c>
+      <c r="O19">
+        <v>1.808144516400351e-08</v>
+      </c>
+      <c r="P19">
+        <v>2.223366914067988e-08</v>
+      </c>
+      <c r="Q19">
+        <v>7.301991605636827e-08</v>
+      </c>
+      <c r="R19">
+        <v>4.977429284507157e-06</v>
+      </c>
+      <c r="S19">
+        <v>0.6999714581763905</v>
+      </c>
+      <c r="U19">
+        <v>0.5087546491264565</v>
+      </c>
+      <c r="V19">
+        <v>0.506617526613014</v>
+      </c>
+      <c r="W19">
+        <v>0.1728525624298781</v>
+      </c>
+      <c r="X19">
+        <v>0.4873935062617363</v>
+      </c>
+      <c r="Y19">
+        <v>3.745505492143232e-06</v>
+      </c>
+      <c r="Z19">
+        <v>2.121748368118458e-06</v>
+      </c>
+      <c r="AA19">
+        <v>1.445977840537358e-08</v>
+      </c>
+      <c r="AB19">
+        <v>1.352888983873295e-08</v>
+      </c>
+      <c r="AC19">
+        <v>1.445977840537358e-08</v>
+      </c>
+      <c r="AD19">
+        <v>3.381470721092771e-08</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
+      <c r="A20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20">
+        <v>-0.4221067450832183</v>
+      </c>
+      <c r="D20">
+        <v>-0.4221067450832183</v>
+      </c>
+      <c r="E20">
+        <v>0.9294830348762281</v>
+      </c>
+      <c r="I20">
+        <v>0.9787929072833826</v>
+      </c>
+      <c r="L20">
+        <v>0.7507885331005166</v>
+      </c>
+      <c r="M20">
+        <v>0.5417650394431498</v>
+      </c>
+      <c r="N20">
+        <v>0.5961610959938102</v>
+      </c>
+      <c r="O20">
+        <v>-0.9757522727228207</v>
+      </c>
+      <c r="P20">
+        <v>-0.9731775950031492</v>
+      </c>
+      <c r="Q20">
+        <v>-0.9632705183396831</v>
+      </c>
+      <c r="R20">
+        <v>-0.9684961944057425</v>
+      </c>
+      <c r="S20">
+        <v>-0.1759573016963104</v>
+      </c>
+      <c r="U20">
+        <v>0.2134321317111308</v>
+      </c>
+      <c r="V20">
+        <v>0.1371677259427816</v>
+      </c>
+      <c r="W20">
+        <v>-0.38491247287027</v>
+      </c>
+      <c r="X20">
+        <v>-0.2544642807515252</v>
+      </c>
+      <c r="Y20">
+        <v>-0.9719736889007206</v>
+      </c>
+      <c r="Z20">
+        <v>0.93953668113874</v>
+      </c>
+      <c r="AA20">
+        <v>-0.9577724744481493</v>
+      </c>
+      <c r="AB20">
+        <v>-0.9539199915599905</v>
+      </c>
+      <c r="AC20">
+        <v>0.9577724744481493</v>
+      </c>
+      <c r="AD20">
+        <v>0.9605350933481723</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
+      <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21">
+        <v>0.1327259256865793</v>
+      </c>
+      <c r="D21">
+        <v>0.1327259256865793</v>
+      </c>
+      <c r="E21">
+        <v>1.523016742067161e-06</v>
+      </c>
+      <c r="I21">
+        <v>1.254758709790561e-09</v>
+      </c>
+      <c r="L21">
+        <v>0.001972209216256345</v>
+      </c>
+      <c r="M21">
+        <v>0.04538213325613643</v>
+      </c>
+      <c r="N21">
+        <v>0.02444447624974292</v>
+      </c>
+      <c r="O21">
+        <v>2.785123577810204e-09</v>
+      </c>
+      <c r="P21">
+        <v>5.074394296947922e-09</v>
+      </c>
+      <c r="Q21">
+        <v>3.274541674715084e-08</v>
+      </c>
+      <c r="R21">
+        <v>1.31876969627731e-08</v>
+      </c>
+      <c r="S21">
+        <v>0.5473638342436931</v>
+      </c>
+      <c r="U21">
+        <v>0.4637766802445878</v>
+      </c>
+      <c r="V21">
+        <v>0.6400671744045865</v>
+      </c>
+      <c r="W21">
+        <v>0.174147784671587</v>
+      </c>
+      <c r="X21">
+        <v>0.3799813400176907</v>
+      </c>
+      <c r="Y21">
+        <v>6.586595152990446e-09</v>
+      </c>
+      <c r="Z21">
+        <v>6.187244825950333e-07</v>
+      </c>
+      <c r="AA21">
+        <v>7.472027167976092e-08</v>
+      </c>
+      <c r="AB21">
+        <v>1.2510986853512e-07</v>
+      </c>
+      <c r="AC21">
+        <v>7.472027167976092e-08</v>
+      </c>
+      <c r="AD21">
+        <v>5.008918145322021e-08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
+      <c r="A22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22">
+        <v>-0.1132277034144596</v>
+      </c>
+      <c r="D22">
+        <v>-0.1132277034144596</v>
+      </c>
+      <c r="E22">
+        <v>0.7892700538950431</v>
+      </c>
+      <c r="N22">
+        <v>0.8364149603398472</v>
+      </c>
+      <c r="O22">
+        <v>-0.6684113681376119</v>
+      </c>
+      <c r="P22">
+        <v>-0.6645865534496164</v>
+      </c>
+      <c r="Q22">
+        <v>-0.6579357399593152</v>
+      </c>
+      <c r="R22">
+        <v>-0.8235059206275517</v>
+      </c>
+      <c r="S22">
+        <v>-0.304883468786511</v>
+      </c>
+      <c r="T22">
+        <v>-0.2472468675630089</v>
+      </c>
+      <c r="U22">
+        <v>0.264409926512701</v>
+      </c>
+      <c r="X22">
+        <v>-0.3434484231709622</v>
+      </c>
+      <c r="Y22">
+        <v>-0.8210493244704071</v>
+      </c>
+      <c r="AA22">
+        <v>-0.5929207068461055</v>
+      </c>
+      <c r="AB22">
+        <v>-0.5771694745878828</v>
+      </c>
+      <c r="AC22">
+        <v>0.5929207068461055</v>
+      </c>
+      <c r="AD22">
+        <v>0.6201288813742083</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
+      <c r="A23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <v>0.699938605811569</v>
+      </c>
+      <c r="D23">
+        <v>0.699938605811569</v>
+      </c>
+      <c r="E23">
+        <v>0.0007892553332388451</v>
+      </c>
+      <c r="N23">
+        <v>0.0001925917383759246</v>
+      </c>
+      <c r="O23">
+        <v>0.008970238010347966</v>
+      </c>
+      <c r="P23">
+        <v>0.00951932424175359</v>
+      </c>
+      <c r="Q23">
+        <v>0.0105354719273189</v>
+      </c>
+      <c r="R23">
+        <v>0.0002949121118047343</v>
+      </c>
+      <c r="S23">
+        <v>0.28918440684456</v>
+      </c>
+      <c r="T23">
+        <v>0.3940980595508048</v>
+      </c>
+      <c r="U23">
+        <v>0.3609788589270969</v>
+      </c>
+      <c r="X23">
+        <v>0.2292632420534419</v>
+      </c>
+      <c r="Y23">
+        <v>0.0003186074691929334</v>
+      </c>
+      <c r="AA23">
+        <v>0.02543533996511804</v>
+      </c>
+      <c r="AB23">
+        <v>0.03068627064829192</v>
+      </c>
+      <c r="AC23">
+        <v>0.02543533996511804</v>
+      </c>
+      <c r="AD23">
+        <v>0.01798818379805959</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
+      <c r="A24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24">
+        <v>0.1291025815147335</v>
+      </c>
+      <c r="D24">
+        <v>0.1291025815147335</v>
+      </c>
+      <c r="E24">
+        <v>0.7082605101032575</v>
+      </c>
+      <c r="L24">
+        <v>0.8144308051169458</v>
+      </c>
+      <c r="N24">
+        <v>0.9962955963629875</v>
+      </c>
+      <c r="O24">
+        <v>-0.4689219282397339</v>
+      </c>
+      <c r="P24">
+        <v>-0.4745798519776696</v>
+      </c>
+      <c r="Q24">
+        <v>-0.4586453947071032</v>
+      </c>
+      <c r="R24">
+        <v>-0.7120678345797581</v>
+      </c>
+      <c r="S24">
+        <v>-0.6526913423845534</v>
+      </c>
+      <c r="T24">
+        <v>-0.6160784735166657</v>
+      </c>
+      <c r="U24">
+        <v>-0.2907138455963798</v>
+      </c>
+      <c r="X24">
+        <v>-0.6783088163132354</v>
+      </c>
+      <c r="Y24">
+        <v>-0.6983549999249732</v>
+      </c>
+      <c r="AA24">
+        <v>-0.3483871336385129</v>
+      </c>
+      <c r="AB24">
+        <v>-0.3167391365851661</v>
+      </c>
+      <c r="AC24">
+        <v>0.3483871336385129</v>
+      </c>
+      <c r="AD24">
+        <v>0.4040077058339813</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
+      <c r="A25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25">
+        <v>0.660031777835365</v>
+      </c>
+      <c r="D25">
+        <v>0.660031777835365</v>
+      </c>
+      <c r="E25">
+        <v>0.004584798568925844</v>
+      </c>
+      <c r="L25">
+        <v>0.0003901775223067873</v>
+      </c>
+      <c r="N25">
+        <v>3.701279357929815e-14</v>
+      </c>
+      <c r="O25">
+        <v>0.09075696740915762</v>
+      </c>
+      <c r="P25">
+        <v>0.08640660561844403</v>
+      </c>
+      <c r="Q25">
+        <v>0.09904504161343139</v>
+      </c>
+      <c r="R25">
+        <v>0.004276408554233706</v>
+      </c>
+      <c r="S25">
+        <v>0.01139400123289253</v>
+      </c>
+      <c r="T25">
+        <v>0.01897621370306743</v>
+      </c>
+      <c r="U25">
+        <v>0.3132938744706197</v>
+      </c>
+      <c r="X25">
+        <v>0.007662585022417731</v>
+      </c>
+      <c r="Y25">
+        <v>0.005469112802715763</v>
+      </c>
+      <c r="AA25">
+        <v>0.2221941823894807</v>
+      </c>
+      <c r="AB25">
+        <v>0.2698733144775834</v>
+      </c>
+      <c r="AC25">
+        <v>0.2221941823894807</v>
+      </c>
+      <c r="AD25">
+        <v>0.1519556245328619</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
+      <c r="A26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26">
+        <v>0.7538581207106266</v>
+      </c>
+      <c r="AA26">
+        <v>-0.4121732951915176</v>
+      </c>
+      <c r="AB26">
+        <v>-0.380922225362566</v>
+      </c>
+      <c r="AC26">
+        <v>0.4121732951915176</v>
+      </c>
+      <c r="AD26">
+        <v>0.4665549494773965</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
+      <c r="A27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27">
+        <v>0.001844239532478304</v>
+      </c>
+      <c r="AA27">
+        <v>0.1430652744727895</v>
+      </c>
+      <c r="AB27">
+        <v>0.1790364710435032</v>
+      </c>
+      <c r="AC27">
+        <v>0.1430652744727895</v>
+      </c>
+      <c r="AD27">
+        <v>0.09262144899444452</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
+      <c r="A28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28">
+        <v>-0.9369117933676616</v>
+      </c>
+      <c r="N28">
+        <v>-0.5286787184801099</v>
+      </c>
+      <c r="P28">
+        <v>0.9994710407459534</v>
+      </c>
+      <c r="Q28">
+        <v>0.997208828290295</v>
+      </c>
+      <c r="AA28">
+        <v>0.9905461094370618</v>
+      </c>
+      <c r="AB28">
+        <v>0.98364086576856</v>
+      </c>
+      <c r="AC28">
+        <v>-0.9905461094370618</v>
+      </c>
+      <c r="AD28">
+        <v>-0.9966985995129338</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29">
+        <v>7.938366603325548e-07</v>
+      </c>
+      <c r="N29">
+        <v>0.0519359004438168</v>
+      </c>
+      <c r="P29">
+        <v>3.158879044497994e-19</v>
+      </c>
+      <c r="Q29">
+        <v>6.785976461112309e-15</v>
+      </c>
+      <c r="AA29">
+        <v>1.010045560299375e-11</v>
+      </c>
+      <c r="AB29">
+        <v>2.671655588502454e-10</v>
+      </c>
+      <c r="AC29">
+        <v>1.010045560299375e-11</v>
+      </c>
+      <c r="AD29">
+        <v>1.856123561722344e-14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
+      <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30">
+        <v>-0.9401219403355643</v>
+      </c>
+      <c r="N30">
+        <v>-0.5342967767649786</v>
+      </c>
+      <c r="AA30">
+        <v>0.9893211365859096</v>
+      </c>
+      <c r="AB30">
+        <v>0.9817159055083693</v>
+      </c>
+      <c r="AC30">
+        <v>-0.9893211365859096</v>
+      </c>
+      <c r="AD30">
+        <v>-0.9966215777890566</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
+      <c r="A31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31">
+        <v>5.843990791121946e-07</v>
+      </c>
+      <c r="N31">
+        <v>0.04904342941989749</v>
+      </c>
+      <c r="AA31">
+        <v>2.092585488537851e-11</v>
+      </c>
+      <c r="AB31">
+        <v>5.186276027869351e-10</v>
+      </c>
+      <c r="AC31">
+        <v>2.092585488537851e-11</v>
+      </c>
+      <c r="AD31">
+        <v>2.131225414549087e-14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
+      <c r="A32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32">
+        <v>-0.9296854942676328</v>
+      </c>
+      <c r="N32">
+        <v>-0.5189562567395459</v>
+      </c>
+      <c r="P32">
+        <v>0.9974559474104449</v>
+      </c>
+      <c r="AA32">
+        <v>0.9877536206531088</v>
+      </c>
+      <c r="AB32">
+        <v>0.979229286932783</v>
+      </c>
+      <c r="AC32">
+        <v>-0.9877536206531088</v>
+      </c>
+      <c r="AD32">
+        <v>-0.9962572271475698</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30">
+      <c r="A33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33">
+        <v>1.497636178522281e-06</v>
+      </c>
+      <c r="N33">
+        <v>0.05723069633257628</v>
+      </c>
+      <c r="P33">
+        <v>3.892958256063375e-15</v>
+      </c>
+      <c r="AA33">
+        <v>4.743663712650853e-11</v>
+      </c>
+      <c r="AB33">
+        <v>1.108641999426524e-09</v>
+      </c>
+      <c r="AC33">
+        <v>4.743663712650853e-11</v>
+      </c>
+      <c r="AD33">
+        <v>3.937015441414145e-14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30">
+      <c r="A34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34">
+        <v>-0.9797793187597476</v>
+      </c>
+      <c r="N34">
+        <v>-0.7568817655550824</v>
+      </c>
+      <c r="O34">
+        <v>0.9495472611397292</v>
+      </c>
+      <c r="P34">
+        <v>0.9496533577727322</v>
+      </c>
+      <c r="Q34">
+        <v>0.9397407081325237</v>
+      </c>
+      <c r="AA34">
+        <v>0.9030824808385217</v>
+      </c>
+      <c r="AB34">
+        <v>0.8900537318815984</v>
+      </c>
+      <c r="AC34">
+        <v>-0.9030824808385217</v>
+      </c>
+      <c r="AD34">
+        <v>-0.9220896364822481</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30">
+      <c r="A35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35">
+        <v>9.448733817368125e-10</v>
+      </c>
+      <c r="N35">
+        <v>0.001724715973570864</v>
+      </c>
+      <c r="O35">
+        <v>2.134896905827788e-07</v>
+      </c>
+      <c r="P35">
+        <v>2.108590370892431e-07</v>
+      </c>
+      <c r="Q35">
+        <v>6.065743216665165e-07</v>
+      </c>
+      <c r="AA35">
+        <v>9.681794067942279e-06</v>
+      </c>
+      <c r="AB35">
+        <v>2.00442421817191e-05</v>
+      </c>
+      <c r="AC35">
+        <v>9.681794067942279e-06</v>
+      </c>
+      <c r="AD35">
+        <v>2.725386481197088e-06</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
+      <c r="A36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36">
+        <v>-0.4532085766020309</v>
+      </c>
+      <c r="N36">
+        <v>-0.6470715348243464</v>
+      </c>
+      <c r="O36">
+        <v>0.235608227973283</v>
+      </c>
+      <c r="P36">
+        <v>0.2529191204014721</v>
+      </c>
+      <c r="Q36">
+        <v>0.2622775170561854</v>
+      </c>
+      <c r="R36">
+        <v>0.3557256526165004</v>
+      </c>
+      <c r="T36">
+        <v>0.7678765432406345</v>
+      </c>
+      <c r="X36">
+        <v>0.9704535087199467</v>
+      </c>
+      <c r="Y36">
+        <v>0.3414887730555043</v>
+      </c>
+      <c r="AA36">
+        <v>0.1404259471985948</v>
+      </c>
+      <c r="AC36">
+        <v>-0.1404259471985948</v>
+      </c>
+      <c r="AD36">
+        <v>-0.2145849988540428</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
+      <c r="A37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37">
+        <v>0.1036352183055469</v>
+      </c>
+      <c r="N37">
+        <v>0.01237259409782458</v>
+      </c>
+      <c r="O37">
+        <v>0.4174312741788832</v>
+      </c>
+      <c r="P37">
+        <v>0.3829805835264256</v>
+      </c>
+      <c r="Q37">
+        <v>0.3650087714301576</v>
+      </c>
+      <c r="R37">
+        <v>0.2119432532079996</v>
+      </c>
+      <c r="T37">
+        <v>0.001340896891013125</v>
+      </c>
+      <c r="X37">
+        <v>9.013011892326217e-09</v>
+      </c>
+      <c r="Y37">
+        <v>0.2321062300582948</v>
+      </c>
+      <c r="AA37">
+        <v>0.6320645665982556</v>
+      </c>
+      <c r="AC37">
+        <v>0.6320645665982556</v>
+      </c>
+      <c r="AD37">
+        <v>0.461307969558025</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30">
+      <c r="A38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38">
+        <v>-0.30052695361803</v>
+      </c>
+      <c r="N38">
+        <v>-0.6150949420908441</v>
+      </c>
+      <c r="R38">
+        <v>0.238340796885898</v>
+      </c>
+      <c r="X38">
+        <v>0.8168831444084718</v>
+      </c>
+      <c r="Y38">
+        <v>0.2148284872242791</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30">
+      <c r="A39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39">
+        <v>0.2964780518227766</v>
+      </c>
+      <c r="N39">
+        <v>0.01922220851187758</v>
+      </c>
+      <c r="R39">
+        <v>0.4118905998528807</v>
+      </c>
+      <c r="X39">
+        <v>0.0003622890426964916</v>
+      </c>
+      <c r="Y39">
+        <v>0.4607873888874077</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30">
+      <c r="A40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40">
+        <v>0.1108350510993337</v>
+      </c>
+      <c r="N40">
+        <v>-0.2542811680597757</v>
+      </c>
+      <c r="O40">
+        <v>-0.2564706764074893</v>
+      </c>
+      <c r="P40">
+        <v>-0.245544889910309</v>
+      </c>
+      <c r="Q40">
+        <v>-0.2675813595632971</v>
+      </c>
+      <c r="R40">
+        <v>-0.1066325659681234</v>
+      </c>
+      <c r="S40">
+        <v>0.4022484838473959</v>
+      </c>
+      <c r="T40">
+        <v>0.5778351706246897</v>
+      </c>
+      <c r="X40">
+        <v>0.4402720230002203</v>
+      </c>
+      <c r="Y40">
+        <v>-0.1272749401144231</v>
+      </c>
+      <c r="AA40">
+        <v>-0.316522201916283</v>
+      </c>
+      <c r="AB40">
+        <v>-0.3297826683600837</v>
+      </c>
+      <c r="AC40">
+        <v>0.316522201916283</v>
+      </c>
+      <c r="AD40">
+        <v>0.2899245611353367</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30">
+      <c r="A41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41">
+        <v>0.7060191889100005</v>
+      </c>
+      <c r="N41">
+        <v>0.3803361155458503</v>
+      </c>
+      <c r="O41">
+        <v>0.376105594943184</v>
+      </c>
+      <c r="P41">
+        <v>0.3974666111092252</v>
+      </c>
+      <c r="Q41">
+        <v>0.3550304297388988</v>
+      </c>
+      <c r="R41">
+        <v>0.7167385807586982</v>
+      </c>
+      <c r="S41">
+        <v>0.1539176587235172</v>
+      </c>
+      <c r="T41">
+        <v>0.03044927451086073</v>
+      </c>
+      <c r="X41">
+        <v>0.115141833042106</v>
+      </c>
+      <c r="Y41">
+        <v>0.6645859022018411</v>
+      </c>
+      <c r="AA41">
+        <v>0.2702195881617226</v>
+      </c>
+      <c r="AB41">
+        <v>0.2495394498510143</v>
+      </c>
+      <c r="AC41">
+        <v>0.2702195881617226</v>
+      </c>
+      <c r="AD41">
+        <v>0.3146695875370311</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30">
+      <c r="A42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42">
+        <v>-0.3718419738522036</v>
+      </c>
+      <c r="D42">
+        <v>-0.3718419738522036</v>
+      </c>
+      <c r="E42">
+        <v>-0.158549333106488</v>
+      </c>
+      <c r="L42">
+        <v>-0.1419020725424812</v>
+      </c>
+      <c r="M42">
+        <v>-0.5891681819040067</v>
+      </c>
+      <c r="N42">
+        <v>-0.5718584703512543</v>
+      </c>
+      <c r="O42">
+        <v>-0.1164656978172847</v>
+      </c>
+      <c r="Q42">
+        <v>-0.1051175229334116</v>
+      </c>
+      <c r="S42">
+        <v>0.8052326458679399</v>
+      </c>
+      <c r="T42">
+        <v>0.9218159323685424</v>
+      </c>
+      <c r="U42">
+        <v>0.5777363031489055</v>
+      </c>
+      <c r="W42">
+        <v>0.349827276888294</v>
+      </c>
+      <c r="X42">
+        <v>0.7884795537825433</v>
+      </c>
+      <c r="AA42">
+        <v>-0.2165459936289506</v>
+      </c>
+      <c r="AB42">
+        <v>-0.2548866781164278</v>
+      </c>
+      <c r="AC42">
+        <v>0.2165459936289506</v>
+      </c>
+      <c r="AD42">
+        <v>0.1498813189363135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30">
+      <c r="A43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43">
+        <v>0.1904885585587648</v>
+      </c>
+      <c r="D43">
+        <v>0.1904885585587648</v>
+      </c>
+      <c r="E43">
+        <v>0.5882511009925752</v>
+      </c>
+      <c r="L43">
+        <v>0.628451236164707</v>
+      </c>
+      <c r="M43">
+        <v>0.02662007676890432</v>
+      </c>
+      <c r="N43">
+        <v>0.03262649270233706</v>
+      </c>
+      <c r="O43">
+        <v>0.6917363015916522</v>
+      </c>
+      <c r="Q43">
+        <v>0.7206150757524581</v>
+      </c>
+      <c r="S43">
+        <v>0.0005106003162162888</v>
+      </c>
+      <c r="T43">
+        <v>2.781656782547733e-06</v>
+      </c>
+      <c r="U43">
+        <v>0.03048438617020416</v>
+      </c>
+      <c r="W43">
+        <v>0.2201586470887336</v>
+      </c>
+      <c r="X43">
+        <v>0.0008056990095305584</v>
+      </c>
+      <c r="AA43">
+        <v>0.4571234604090396</v>
+      </c>
+      <c r="AB43">
+        <v>0.3791636314396641</v>
+      </c>
+      <c r="AC43">
+        <v>0.4571234604090396</v>
+      </c>
+      <c r="AD43">
+        <v>0.6090545292208754</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30">
+      <c r="A44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44">
+        <v>0.2139021405388282</v>
+      </c>
+      <c r="D44">
+        <v>0.2139021405388282</v>
+      </c>
+      <c r="E44">
+        <v>-0.5201711782182361</v>
+      </c>
+      <c r="L44">
+        <v>-0.4280618708580233</v>
+      </c>
+      <c r="M44">
+        <v>-0.4892299689755836</v>
+      </c>
+      <c r="N44">
+        <v>-0.4911656697535008</v>
+      </c>
+      <c r="O44">
+        <v>0.440944839539461</v>
+      </c>
+      <c r="P44">
+        <v>0.4512519750164856</v>
+      </c>
+      <c r="Q44">
+        <v>0.4799154760659869</v>
+      </c>
+      <c r="R44">
+        <v>0.4919088861208752</v>
+      </c>
+      <c r="S44">
+        <v>0.6083228864126845</v>
+      </c>
+      <c r="T44">
+        <v>0.4397572176388398</v>
+      </c>
+      <c r="X44">
+        <v>0.6542871777163917</v>
+      </c>
+      <c r="Y44">
+        <v>0.4836204545311566</v>
+      </c>
+      <c r="Z44">
+        <v>-0.4982825467488685</v>
+      </c>
+      <c r="AA44">
+        <v>0.3945298126288505</v>
+      </c>
+      <c r="AB44">
+        <v>0.372161622016949</v>
+      </c>
+      <c r="AC44">
+        <v>-0.3945298126288505</v>
+      </c>
+      <c r="AD44">
+        <v>-0.4304356522514563</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30">
+      <c r="A45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45">
+        <v>0.4627694486183569</v>
+      </c>
+      <c r="D45">
+        <v>0.4627694486183569</v>
+      </c>
+      <c r="E45">
+        <v>0.05654864704127643</v>
+      </c>
+      <c r="L45">
+        <v>0.1267745989017028</v>
+      </c>
+      <c r="M45">
+        <v>0.07582491069109075</v>
+      </c>
+      <c r="N45">
+        <v>0.07449885757178888</v>
+      </c>
+      <c r="O45">
+        <v>0.1145228206193575</v>
+      </c>
+      <c r="P45">
+        <v>0.1053224089051628</v>
+      </c>
+      <c r="Q45">
+        <v>0.0824398628957166</v>
+      </c>
+      <c r="R45">
+        <v>0.07399410924257027</v>
+      </c>
+      <c r="S45">
+        <v>0.02098209273343195</v>
+      </c>
+      <c r="T45">
+        <v>0.1156170088640982</v>
+      </c>
+      <c r="X45">
+        <v>0.01112726885996038</v>
+      </c>
+      <c r="Y45">
+        <v>0.0797618921457716</v>
+      </c>
+      <c r="Z45">
+        <v>0.06976461902568643</v>
+      </c>
+      <c r="AA45">
+        <v>0.162723297576174</v>
+      </c>
+      <c r="AB45">
+        <v>0.1900776635223898</v>
+      </c>
+      <c r="AC45">
+        <v>0.162723297576174</v>
+      </c>
+      <c r="AD45">
+        <v>0.1244534209599477</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30">
+      <c r="A46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46">
+        <v>-0.5220107157924674</v>
+      </c>
+      <c r="N46">
+        <v>-0.6767188204688845</v>
+      </c>
+      <c r="O46">
+        <v>0.3011036380345449</v>
+      </c>
+      <c r="P46">
+        <v>0.3202459856198795</v>
+      </c>
+      <c r="Q46">
+        <v>0.323151948929813</v>
+      </c>
+      <c r="R46">
+        <v>0.4275195481438366</v>
+      </c>
+      <c r="Y46">
+        <v>0.4118118406603645</v>
+      </c>
+      <c r="AA46">
+        <v>0.2139351886063725</v>
+      </c>
+      <c r="AB46">
+        <v>0.1746236093713951</v>
+      </c>
+      <c r="AC46">
+        <v>-0.2139351886063725</v>
+      </c>
+      <c r="AD46">
+        <v>-0.2787474564782059</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30">
+      <c r="A47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47">
+        <v>0.05552713206042954</v>
+      </c>
+      <c r="N47">
+        <v>0.007862010313683719</v>
+      </c>
+      <c r="O47">
+        <v>0.2955064926852278</v>
+      </c>
+      <c r="P47">
+        <v>0.26431233205315</v>
+      </c>
+      <c r="Q47">
+        <v>0.2597565975105883</v>
+      </c>
+      <c r="R47">
+        <v>0.127308976689804</v>
+      </c>
+      <c r="Y47">
+        <v>0.1434513062813339</v>
+      </c>
+      <c r="AA47">
+        <v>0.4626986663124922</v>
+      </c>
+      <c r="AB47">
+        <v>0.550452563370142</v>
+      </c>
+      <c r="AC47">
+        <v>0.4626986663124922</v>
+      </c>
+      <c r="AD47">
+        <v>0.3345193093228455</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30">
+      <c r="A48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48">
+        <v>-0.9787379708135018</v>
+      </c>
+      <c r="N48">
+        <v>-0.7437068916494388</v>
+      </c>
+      <c r="O48">
+        <v>0.954726389629042</v>
+      </c>
+      <c r="P48">
+        <v>0.9544564641533949</v>
+      </c>
+      <c r="Q48">
+        <v>0.9448301410022025</v>
+      </c>
+      <c r="R48">
+        <v>0.9995933507684125</v>
+      </c>
+      <c r="AA48">
+        <v>0.9104454103622435</v>
+      </c>
+      <c r="AB48">
+        <v>0.8979374752669768</v>
+      </c>
+      <c r="AC48">
+        <v>-0.9104454103622435</v>
+      </c>
+      <c r="AD48">
+        <v>-0.9284295835612772</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30">
+      <c r="A49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49">
+        <v>1.274236710953937e-09</v>
+      </c>
+      <c r="N49">
+        <v>0.002294362339571416</v>
+      </c>
+      <c r="O49">
+        <v>1.127330296664055e-07</v>
+      </c>
+      <c r="P49">
+        <v>1.167575897957112e-07</v>
+      </c>
+      <c r="Q49">
+        <v>3.612409992487553e-07</v>
+      </c>
+      <c r="R49">
+        <v>6.522787984482574e-20</v>
+      </c>
+      <c r="AA49">
+        <v>6.126049343594008e-06</v>
+      </c>
+      <c r="AB49">
+        <v>1.30544392850111e-05</v>
+      </c>
+      <c r="AC49">
+        <v>6.126049343594008e-06</v>
+      </c>
+      <c r="AD49">
+        <v>1.660870821405152e-06</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30">
+      <c r="A50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50">
+        <v>-0.2653940853289753</v>
+      </c>
+      <c r="D50">
+        <v>-0.2653940853289753</v>
+      </c>
+      <c r="E50">
+        <v>0.9410345542093227</v>
+      </c>
+      <c r="L50">
+        <v>0.6606125677070466</v>
+      </c>
+      <c r="M50">
+        <v>0.5131862372940007</v>
+      </c>
+      <c r="N50">
+        <v>0.5714794903637421</v>
+      </c>
+      <c r="O50">
+        <v>-0.9835608202034004</v>
+      </c>
+      <c r="P50">
+        <v>-0.9860674296039046</v>
+      </c>
+      <c r="Q50">
+        <v>-0.988678939603777</v>
+      </c>
+      <c r="R50">
+        <v>-0.9378093759239859</v>
+      </c>
+      <c r="S50">
+        <v>-0.3748806024003464</v>
+      </c>
+      <c r="T50">
+        <v>-0.1591451043429889</v>
+      </c>
+      <c r="U50">
+        <v>0.2251235749288191</v>
+      </c>
+      <c r="X50">
+        <v>-0.4154127857147986</v>
+      </c>
+      <c r="Y50">
+        <v>-0.9417933568488974</v>
+      </c>
+      <c r="AA50">
+        <v>-0.961839681192449</v>
+      </c>
+      <c r="AB50">
+        <v>-0.9463362139281807</v>
+      </c>
+      <c r="AC50">
+        <v>0.961839681192449</v>
+      </c>
+      <c r="AD50">
+        <v>0.9816190159946063</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30">
+      <c r="A51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51">
+        <v>0.3591271659617079</v>
+      </c>
+      <c r="D51">
+        <v>0.3591271659617079</v>
+      </c>
+      <c r="E51">
+        <v>5.340209164124299e-07</v>
+      </c>
+      <c r="L51">
+        <v>0.01011692742471004</v>
+      </c>
+      <c r="M51">
+        <v>0.06055110371803765</v>
+      </c>
+      <c r="N51">
+        <v>0.03276833726789192</v>
+      </c>
+      <c r="O51">
+        <v>2.750581213667482e-10</v>
+      </c>
+      <c r="P51">
+        <v>1.024891270269766e-10</v>
+      </c>
+      <c r="Q51">
+        <v>2.966575608204306e-11</v>
+      </c>
+      <c r="R51">
+        <v>7.298739544042622e-07</v>
+      </c>
+      <c r="S51">
+        <v>0.1866054317904775</v>
+      </c>
+      <c r="T51">
+        <v>0.5868317882915692</v>
+      </c>
+      <c r="U51">
+        <v>0.4390399762096737</v>
+      </c>
+      <c r="X51">
+        <v>0.1396363688877585</v>
+      </c>
+      <c r="Y51">
+        <v>4.949152306368735e-07</v>
+      </c>
+      <c r="AA51">
+        <v>4.105653272915077e-08</v>
+      </c>
+      <c r="AB51">
+        <v>3.069769536125944e-07</v>
+      </c>
+      <c r="AC51">
+        <v>4.105653272915077e-08</v>
+      </c>
+      <c r="AD51">
+        <v>5.352252653274782e-10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30">
+      <c r="A52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52">
+        <v>-0.8905465457122823</v>
+      </c>
+      <c r="AC52">
+        <v>-1</v>
+      </c>
+      <c r="AD52">
+        <v>-0.9963756430885129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30">
+      <c r="A53" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53">
+        <v>1.953271743694671e-05</v>
+      </c>
+      <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <v>3.247150415642106e-14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30">
+      <c r="A54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54">
+        <v>-0.8744052137424106</v>
+      </c>
+      <c r="AA54">
+        <v>0.9986445851821943</v>
+      </c>
+      <c r="AC54">
+        <v>-0.9986445851821943</v>
+      </c>
+      <c r="AD54">
+        <v>-0.990621577750593</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30">
+      <c r="A55" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55">
+        <v>4.300032949651615e-05</v>
+      </c>
+      <c r="AA55">
+        <v>8.926138994310188e-17</v>
+      </c>
+      <c r="AC55">
+        <v>8.926138994310188e-17</v>
+      </c>
+      <c r="AD55">
+        <v>9.627792632412924e-12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30">
+      <c r="A56" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56">
+        <v>0.8905465457122823</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30">
+      <c r="A57" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57">
+        <v>1.953271743694671e-05</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30">
+      <c r="A58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58">
+        <v>0.9142121810855975</v>
+      </c>
+      <c r="AC58">
+        <v>0.9963756430885129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30">
+      <c r="A59" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59">
+        <v>4.773501297506472e-06</v>
+      </c>
+      <c r="AC59">
+        <v>3.247150415642106e-14</v>
       </c>
     </row>
   </sheetData>
